--- a/excels/01150927_full-report_m.xlsx
+++ b/excels/01150927_full-report_m.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\egil\gits_wsl\seq-label_analysis\excels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\egil\gits_wsl\seq-label_analysis\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBAB30BA-7A24-4676-B070-2A10F0CF8CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C32832F-7453-46E4-AC38-49C50E389BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10148" yWindow="5719" windowWidth="39124" windowHeight="21166" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2663" yWindow="2663" windowWidth="19562" windowHeight="10161" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="2" r:id="rId1"/>
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="22" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6763" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6755" uniqueCount="108">
   <si>
     <t>timestamp</t>
   </si>
@@ -19039,14 +19039,14 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FE539C6-6AF9-4FA8-AC3A-FB478511E877}" name="Pivottabell2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:V63" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4FE539C6-6AF9-4FA8-AC3A-FB478511E877}" name="Pivottabell2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Verdier" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:V34" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="20">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
       <items count="2">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
@@ -19119,96 +19119,9 @@
     <field x="5"/>
     <field x="12"/>
   </rowFields>
-  <rowItems count="59">
+  <rowItems count="30">
     <i>
       <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="2">
-      <x/>
-    </i>
-    <i r="2">
-      <x v="1"/>
-    </i>
-    <i r="2">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i r="1">
       <x/>
@@ -19669,10 +19582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56F1421-E809-4BD1-8BA5-ECC0BAEC5707}">
-  <dimension ref="A1:V63"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -21405,1706 +21318,70 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-      <c r="C36" s="6">
-        <v>0</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="6">
-        <v>0</v>
-      </c>
-      <c r="S36" s="6">
-        <v>0</v>
-      </c>
-      <c r="T36" s="6">
-        <v>0</v>
-      </c>
-      <c r="U36" s="6">
-        <v>0</v>
-      </c>
-      <c r="V36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6">
-        <v>0</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37" s="6">
-        <v>0</v>
-      </c>
-      <c r="S37" s="6">
-        <v>0</v>
-      </c>
-      <c r="T37" s="6">
-        <v>0</v>
-      </c>
-      <c r="U37" s="6">
-        <v>0</v>
-      </c>
-      <c r="V37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0</v>
-      </c>
-      <c r="C38" s="6">
-        <v>7.355021216407355E-2</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0.1193809874723655</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0.18513853904282121</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0.23943661971830979</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0.25907859078590789</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0.28522920203735141</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0.28800856531049251</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0.29263157894736841</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0.28092922744462451</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0.27586206896551718</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0.28476454293628811</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0.27987082884822401</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0.28604250430786898</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0.28494911622924479</v>
-      </c>
-      <c r="R38" s="6">
-        <v>0.287292817679558</v>
-      </c>
-      <c r="S38" s="6">
-        <v>0.29023458810692848</v>
-      </c>
-      <c r="T38" s="6">
-        <v>0.29123000551571981</v>
-      </c>
-      <c r="U38" s="6">
-        <v>0.29559397657557163</v>
-      </c>
-      <c r="V38" s="6">
-        <v>0.24424691289012607</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6">
-        <v>0</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0</v>
-      </c>
-      <c r="R40" s="6">
-        <v>0</v>
-      </c>
-      <c r="S40" s="6">
-        <v>0</v>
-      </c>
-      <c r="T40" s="6">
-        <v>0</v>
-      </c>
-      <c r="U40" s="6">
-        <v>0</v>
-      </c>
-      <c r="V40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B41" s="6">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6">
-        <v>0</v>
-      </c>
-      <c r="D41" s="6">
-        <v>4.9277824978759557E-2</v>
-      </c>
-      <c r="E41" s="6">
-        <v>9.9084544964997315E-2</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0.14585908529048211</v>
-      </c>
-      <c r="G41" s="6">
-        <v>0.17129629629629631</v>
-      </c>
-      <c r="H41" s="6">
-        <v>0.18358038768529081</v>
-      </c>
-      <c r="I41" s="6">
-        <v>0.204250295159386</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.2360043907793633</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0.24529316837009141</v>
-      </c>
-      <c r="L41" s="6">
-        <v>0.27035657264502388</v>
-      </c>
-      <c r="M41" s="6">
-        <v>0.26857457347275732</v>
-      </c>
-      <c r="N41" s="6">
-        <v>0.27635172037138173</v>
-      </c>
-      <c r="O41" s="6">
-        <v>0.28864864864864859</v>
-      </c>
-      <c r="P41" s="6">
-        <v>0.29276500280426238</v>
-      </c>
-      <c r="Q41" s="6">
-        <v>0.29369067560022333</v>
-      </c>
-      <c r="R41" s="6">
-        <v>0.29657387580299788</v>
-      </c>
-      <c r="S41" s="6">
-        <v>0.29693383539537388</v>
-      </c>
-      <c r="T41" s="6">
-        <v>0.29858849077090122</v>
-      </c>
-      <c r="U41" s="6">
-        <v>0.29021739130434782</v>
-      </c>
-      <c r="V41" s="6">
-        <v>0.21036733901702925</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B42" s="6">
-        <v>9.4366197183098605E-2</v>
-      </c>
-      <c r="C42" s="6">
-        <v>0.12876052948255121</v>
-      </c>
-      <c r="D42" s="6">
-        <v>0.216123499142367</v>
-      </c>
-      <c r="E42" s="6">
-        <v>0.2878612716763006</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0.29228410832907509</v>
-      </c>
-      <c r="G42" s="6">
-        <v>0.2879499217527387</v>
-      </c>
-      <c r="H42" s="6">
-        <v>0.30303030303030298</v>
-      </c>
-      <c r="I42" s="6">
-        <v>0.29869451697127941</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0.30975735673722249</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0.29553617239610058</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0.31408526713437668</v>
-      </c>
-      <c r="M42" s="6">
-        <v>0.31084727468969242</v>
-      </c>
-      <c r="N42" s="6">
-        <v>0.31481481481481483</v>
-      </c>
-      <c r="O42" s="6">
-        <v>0.30997442455242957</v>
-      </c>
-      <c r="P42" s="6">
-        <v>0.32116788321167877</v>
-      </c>
-      <c r="Q42" s="6">
-        <v>0.31928049465992131</v>
-      </c>
-      <c r="R42" s="6">
-        <v>0.32816675574559062</v>
-      </c>
-      <c r="S42" s="6">
-        <v>0.32013022246337491</v>
-      </c>
-      <c r="T42" s="6">
-        <v>0.31813125695216909</v>
-      </c>
-      <c r="U42" s="6">
-        <v>0.31825795644891131</v>
-      </c>
-      <c r="V42" s="6">
-        <v>0.28446101136869978</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="C44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="D44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="E44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="F44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="G44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="H44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="I44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="J44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="K44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="L44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="M44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="N44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="O44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="P44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="Q44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="R44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="S44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="T44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="U44" s="6">
-        <v>6.9944743652514509E-4</v>
-      </c>
-      <c r="V44" s="6">
-        <v>6.9944743652514488E-4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B45" s="6">
-        <v>0</v>
-      </c>
-      <c r="C45" s="6">
-        <v>0</v>
-      </c>
-      <c r="D45" s="6">
-        <v>0</v>
-      </c>
-      <c r="E45" s="6">
-        <v>0</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6">
-        <v>0</v>
-      </c>
-      <c r="I45" s="6">
-        <v>8.948545861297539E-3</v>
-      </c>
-      <c r="J45" s="6">
-        <v>2.713178294573643E-2</v>
-      </c>
-      <c r="K45" s="6">
-        <v>6.8513119533527705E-2</v>
-      </c>
-      <c r="L45" s="6">
-        <v>6.8027210884353734E-2</v>
-      </c>
-      <c r="M45" s="6">
-        <v>8.1871345029239762E-2</v>
-      </c>
-      <c r="N45" s="6">
-        <v>6.9444444444444461E-2</v>
-      </c>
-      <c r="O45" s="6">
-        <v>8.444187391555813E-2</v>
-      </c>
-      <c r="P45" s="6">
-        <v>9.8238120662039505E-2</v>
-      </c>
-      <c r="Q45" s="6">
-        <v>0.1088794926004228</v>
-      </c>
-      <c r="R45" s="6">
-        <v>0.1045007759958614</v>
-      </c>
-      <c r="S45" s="6">
-        <v>0.10138248847926271</v>
-      </c>
-      <c r="T45" s="6">
-        <v>0.1049868766404199</v>
-      </c>
-      <c r="U45" s="6">
-        <v>0.10438413361169099</v>
-      </c>
-      <c r="V45" s="6">
-        <v>5.1537510530192752E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B46" s="6">
-        <v>0.19948519948519949</v>
-      </c>
-      <c r="C46" s="6">
-        <v>0.2251023192360164</v>
-      </c>
-      <c r="D46" s="6">
-        <v>0.27932285368802912</v>
-      </c>
-      <c r="E46" s="6">
-        <v>0.2828507795100223</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.26376958059626071</v>
-      </c>
-      <c r="G46" s="6">
-        <v>0.26413043478260873</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0.28261939931068442</v>
-      </c>
-      <c r="I46" s="6">
-        <v>0.2496270512182994</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0.27231638418079102</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0.27382833070036861</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0.26091954022988501</v>
-      </c>
-      <c r="M46" s="6">
-        <v>0.2501408450704225</v>
-      </c>
-      <c r="N46" s="6">
-        <v>0.25110132158590309</v>
-      </c>
-      <c r="O46" s="6">
-        <v>0.26043956043956051</v>
-      </c>
-      <c r="P46" s="6">
-        <v>0.25429553264604809</v>
-      </c>
-      <c r="Q46" s="6">
-        <v>0.25163204747774481</v>
-      </c>
-      <c r="R46" s="6">
-        <v>0.2643993417443774</v>
-      </c>
-      <c r="S46" s="6">
-        <v>0.27003765465303919</v>
-      </c>
-      <c r="T46" s="6">
-        <v>0.26844148641153631</v>
-      </c>
-      <c r="U46" s="6">
-        <v>0.26459143968871601</v>
-      </c>
-      <c r="V46" s="6">
-        <v>0.25945255513277571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B48" s="6">
-        <v>0</v>
-      </c>
-      <c r="C48" s="6">
-        <v>0</v>
-      </c>
-      <c r="D48" s="6">
-        <v>0</v>
-      </c>
-      <c r="E48" s="6">
-        <v>0</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
-        <v>0</v>
-      </c>
-      <c r="H48" s="6">
-        <v>0</v>
-      </c>
-      <c r="I48" s="6">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="6">
-        <v>0</v>
-      </c>
-      <c r="N48" s="6">
-        <v>0</v>
-      </c>
-      <c r="O48" s="6">
-        <v>0</v>
-      </c>
-      <c r="P48" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="6">
-        <v>0</v>
-      </c>
-      <c r="R48" s="6">
-        <v>0</v>
-      </c>
-      <c r="S48" s="6">
-        <v>0</v>
-      </c>
-      <c r="T48" s="6">
-        <v>0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>0</v>
-      </c>
-      <c r="V48" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B49" s="6">
-        <v>0</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6">
-        <v>0</v>
-      </c>
-      <c r="E49" s="6">
-        <v>0</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0</v>
-      </c>
-      <c r="I49" s="6">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="6">
-        <v>0</v>
-      </c>
-      <c r="N49" s="6">
-        <v>0</v>
-      </c>
-      <c r="O49" s="6">
-        <v>0</v>
-      </c>
-      <c r="P49" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="6">
-        <v>0</v>
-      </c>
-      <c r="R49" s="6">
-        <v>0</v>
-      </c>
-      <c r="S49" s="6">
-        <v>0</v>
-      </c>
-      <c r="T49" s="6">
-        <v>0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>0</v>
-      </c>
-      <c r="V49" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B50" s="6">
-        <v>0</v>
-      </c>
-      <c r="C50" s="6">
-        <v>0</v>
-      </c>
-      <c r="D50" s="6">
-        <v>0</v>
-      </c>
-      <c r="E50" s="6">
-        <v>0</v>
-      </c>
-      <c r="F50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-      <c r="I50" s="6">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-      <c r="N50" s="6">
-        <v>0</v>
-      </c>
-      <c r="O50" s="6">
-        <v>0</v>
-      </c>
-      <c r="P50" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="6">
-        <v>0</v>
-      </c>
-      <c r="R50" s="6">
-        <v>0</v>
-      </c>
-      <c r="S50" s="6">
-        <v>0</v>
-      </c>
-      <c r="T50" s="6">
-        <v>0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>0</v>
-      </c>
-      <c r="V50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B52" s="6">
-        <v>0</v>
-      </c>
-      <c r="C52" s="6">
-        <v>0</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>6.5645514223194746E-3</v>
-      </c>
-      <c r="F52" s="6">
-        <v>1.6913319238900631E-2</v>
-      </c>
-      <c r="G52" s="6">
-        <v>4.296875E-2</v>
-      </c>
-      <c r="H52" s="6">
-        <v>4.8780487804878037E-2</v>
-      </c>
-      <c r="I52" s="6">
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="J52" s="6">
-        <v>7.2888888888888878E-2</v>
-      </c>
-      <c r="K52" s="6">
-        <v>7.3674752920035919E-2</v>
-      </c>
-      <c r="L52" s="6">
-        <v>8.9867841409691632E-2</v>
-      </c>
-      <c r="M52" s="6">
-        <v>9.5158597662771266E-2</v>
-      </c>
-      <c r="N52" s="6">
-        <v>0.1038338658146965</v>
-      </c>
-      <c r="O52" s="6">
-        <v>0.1086261980830671</v>
-      </c>
-      <c r="P52" s="6">
-        <v>0.1098726114649682</v>
-      </c>
-      <c r="Q52" s="6">
-        <v>0.1107594936708861</v>
-      </c>
-      <c r="R52" s="6">
-        <v>0.11553473848555811</v>
-      </c>
-      <c r="S52" s="6">
-        <v>0.1141950832672482</v>
-      </c>
-      <c r="T52" s="6">
-        <v>0.1175548589341693</v>
-      </c>
-      <c r="U52" s="6">
-        <v>0.1176470588235294</v>
-      </c>
-      <c r="V52" s="6">
-        <v>7.1088208740734279E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B53" s="6">
-        <v>5.6751467710371817E-2</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0.12898550724637681</v>
-      </c>
-      <c r="D53" s="6">
-        <v>0.16249153689911991</v>
-      </c>
-      <c r="E53" s="6">
-        <v>0.20617283950617279</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0.21535063500828269</v>
-      </c>
-      <c r="G53" s="6">
-        <v>0.2141176470588235</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0.2379099499722068</v>
-      </c>
-      <c r="I53" s="6">
-        <v>0.2322946175637394</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0.24199288256227761</v>
-      </c>
-      <c r="K53" s="6">
-        <v>0.26353198469108802</v>
-      </c>
-      <c r="L53" s="6">
-        <v>0.26532769556025371</v>
-      </c>
-      <c r="M53" s="6">
-        <v>0.26063249727371862</v>
-      </c>
-      <c r="N53" s="6">
-        <v>0.26340447683498169</v>
-      </c>
-      <c r="O53" s="6">
-        <v>0.26404800872885992</v>
-      </c>
-      <c r="P53" s="6">
-        <v>0.28136882129277557</v>
-      </c>
-      <c r="Q53" s="6">
-        <v>0.27745045527584361</v>
-      </c>
-      <c r="R53" s="6">
-        <v>0.26986666666666659</v>
-      </c>
-      <c r="S53" s="6">
-        <v>0.27611940298507459</v>
-      </c>
-      <c r="T53" s="6">
-        <v>0.27311370882040392</v>
-      </c>
-      <c r="U53" s="6">
-        <v>0.27831715210355978</v>
-      </c>
-      <c r="V53" s="6">
-        <v>0.23346239768802984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B54" s="6">
-        <v>0.18972332015810281</v>
-      </c>
-      <c r="C54" s="6">
-        <v>0.25726141078838172</v>
-      </c>
-      <c r="D54" s="6">
-        <v>0.28604786923525982</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0.29506493506493509</v>
-      </c>
-      <c r="F54" s="6">
-        <v>0.27826086956521739</v>
-      </c>
-      <c r="G54" s="6">
-        <v>0.28995901639344263</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0.32251521298174429</v>
-      </c>
-      <c r="I54" s="6">
-        <v>0.31213872832369938</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0.3000522739153163</v>
-      </c>
-      <c r="K54" s="6">
-        <v>0.32081911262798629</v>
-      </c>
-      <c r="L54" s="6">
-        <v>0.29539706626201312</v>
-      </c>
-      <c r="M54" s="6">
-        <v>0.31324004305705061</v>
-      </c>
-      <c r="N54" s="6">
-        <v>0.31406649616368287</v>
-      </c>
-      <c r="O54" s="6">
-        <v>0.31501416430594897</v>
-      </c>
-      <c r="P54" s="6">
-        <v>0.32432432432432429</v>
-      </c>
-      <c r="Q54" s="6">
-        <v>0.31567683253076512</v>
-      </c>
-      <c r="R54" s="6">
-        <v>0.30644288034650791</v>
-      </c>
-      <c r="S54" s="6">
-        <v>0.31374606505771252</v>
-      </c>
-      <c r="T54" s="6">
-        <v>0.31232876712328772</v>
-      </c>
-      <c r="U54" s="6">
-        <v>0.31434830230010963</v>
-      </c>
-      <c r="V54" s="6">
-        <v>0.29882138452627444</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B56" s="6">
-        <v>0</v>
-      </c>
-      <c r="C56" s="6">
-        <v>4.5197740112994352E-3</v>
-      </c>
-      <c r="D56" s="6">
-        <v>5.2631578947368432E-2</v>
-      </c>
-      <c r="E56" s="6">
-        <v>0.10290456431535271</v>
-      </c>
-      <c r="F56" s="6">
-        <v>0.1070287539936102</v>
-      </c>
-      <c r="G56" s="6">
-        <v>0.128719723183391</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0.15471167369901551</v>
-      </c>
-      <c r="I56" s="6">
-        <v>0.16284987277353691</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0.17005076142131981</v>
-      </c>
-      <c r="K56" s="6">
-        <v>0.17958656330749351</v>
-      </c>
-      <c r="L56" s="6">
-        <v>0.18675078864353309</v>
-      </c>
-      <c r="M56" s="6">
-        <v>0.1979695431472081</v>
-      </c>
-      <c r="N56" s="6">
-        <v>0.19711538461538461</v>
-      </c>
-      <c r="O56" s="6">
-        <v>0.20835785756327249</v>
-      </c>
-      <c r="P56" s="6">
-        <v>0.22482435597189701</v>
-      </c>
-      <c r="Q56" s="6">
-        <v>0.21726010863005429</v>
-      </c>
-      <c r="R56" s="6">
-        <v>0.22867092280905399</v>
-      </c>
-      <c r="S56" s="6">
-        <v>0.22853688029020561</v>
-      </c>
-      <c r="T56" s="6">
-        <v>0.2266187050359712</v>
-      </c>
-      <c r="U56" s="6">
-        <v>0.22445363260484349</v>
-      </c>
-      <c r="V56" s="6">
-        <v>0.16017807224819058</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B57" s="6">
-        <v>0.1117408906882591</v>
-      </c>
-      <c r="C57" s="6">
-        <v>0.19524100061012811</v>
-      </c>
-      <c r="D57" s="6">
-        <v>0.25285972305839849</v>
-      </c>
-      <c r="E57" s="6">
-        <v>0.28280542986425339</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.28639053254437868</v>
-      </c>
-      <c r="G57" s="6">
-        <v>0.2779017857142857</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0.3088583609663666</v>
-      </c>
-      <c r="I57" s="6">
-        <v>0.31240582621798091</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0.31218529707955689</v>
-      </c>
-      <c r="K57" s="6">
-        <v>0.32328482328482328</v>
-      </c>
-      <c r="L57" s="6">
-        <v>0.31164742917103883</v>
-      </c>
-      <c r="M57" s="6">
-        <v>0.33032395114179502</v>
-      </c>
-      <c r="N57" s="6">
-        <v>0.31703551209469888</v>
-      </c>
-      <c r="O57" s="6">
-        <v>0.31021704605611428</v>
-      </c>
-      <c r="P57" s="6">
-        <v>0.32004089979550099</v>
-      </c>
-      <c r="Q57" s="6">
-        <v>0.3264064875823619</v>
-      </c>
-      <c r="R57" s="6">
-        <v>0.32550860719874802</v>
-      </c>
-      <c r="S57" s="6">
-        <v>0.33350979354155641</v>
-      </c>
-      <c r="T57" s="6">
-        <v>0.32432432432432429</v>
-      </c>
-      <c r="U57" s="6">
-        <v>0.32947368421052631</v>
-      </c>
-      <c r="V57" s="6">
-        <v>0.29460807025725483</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B58" s="6">
-        <v>0.28158041179744009</v>
-      </c>
-      <c r="C58" s="6">
-        <v>0.30017055144968741</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0.30252100840336132</v>
-      </c>
-      <c r="E58" s="6">
-        <v>0.31948192120885049</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.3108974358974359</v>
-      </c>
-      <c r="G58" s="6">
-        <v>0.30580462482302972</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0.31294597349643222</v>
-      </c>
-      <c r="I58" s="6">
-        <v>0.32142857142857151</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0.3195991091314031</v>
-      </c>
-      <c r="K58" s="6">
-        <v>0.32121540965816597</v>
-      </c>
-      <c r="L58" s="6">
-        <v>0.328555678059537</v>
-      </c>
-      <c r="M58" s="6">
-        <v>0.32315789473684209</v>
-      </c>
-      <c r="N58" s="6">
-        <v>0.32755729457797661</v>
-      </c>
-      <c r="O58" s="6">
-        <v>0.34456101601325229</v>
-      </c>
-      <c r="P58" s="6">
-        <v>0.32939914163090128</v>
-      </c>
-      <c r="Q58" s="6">
-        <v>0.33387710712343671</v>
-      </c>
-      <c r="R58" s="6">
-        <v>0.34072471606273658</v>
-      </c>
-      <c r="S58" s="6">
-        <v>0.34295227524972249</v>
-      </c>
-      <c r="T58" s="6">
-        <v>0.34272829763246898</v>
-      </c>
-      <c r="U58" s="6">
-        <v>0.34075723830734972</v>
-      </c>
-      <c r="V58" s="6">
-        <v>0.32249578383443012</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="B60" s="6">
-        <v>2.2675736961451252E-3</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
-        <v>0</v>
-      </c>
-      <c r="E60" s="6">
-        <v>0</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0</v>
-      </c>
-      <c r="G60" s="6">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
-      <c r="J60" s="6">
-        <v>2.2148394241417501E-3</v>
-      </c>
-      <c r="K60" s="6">
-        <v>8.7431693989071038E-3</v>
-      </c>
-      <c r="L60" s="6">
-        <v>1.067235859124867E-2</v>
-      </c>
-      <c r="M60" s="6">
-        <v>1.4659685863874349E-2</v>
-      </c>
-      <c r="N60" s="6">
-        <v>1.8556701030927839E-2</v>
-      </c>
-      <c r="O60" s="6">
-        <v>2.419354838709677E-2</v>
-      </c>
-      <c r="P60" s="6">
-        <v>2.7750247770069379E-2</v>
-      </c>
-      <c r="Q60" s="6">
-        <v>2.7695351137487639E-2</v>
-      </c>
-      <c r="R60" s="6">
-        <v>3.0798845043310881E-2</v>
-      </c>
-      <c r="S60" s="6">
-        <v>3.4582132564841501E-2</v>
-      </c>
-      <c r="T60" s="6">
-        <v>3.4582132564841501E-2</v>
-      </c>
-      <c r="U60" s="6">
-        <v>3.4318398474737853E-2</v>
-      </c>
-      <c r="V60" s="6">
-        <v>1.3551749197381516E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="B61" s="6">
-        <v>0</v>
-      </c>
-      <c r="C61" s="6">
-        <v>8.3420229405630868E-3</v>
-      </c>
-      <c r="D61" s="6">
-        <v>8.9527027027027029E-2</v>
-      </c>
-      <c r="E61" s="6">
-        <v>0.1306818181818182</v>
-      </c>
-      <c r="F61" s="6">
-        <v>0.15265200517464431</v>
-      </c>
-      <c r="G61" s="6">
-        <v>0.1553653719552337</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0.18321513002364059</v>
-      </c>
-      <c r="I61" s="6">
-        <v>0.19224088013896931</v>
-      </c>
-      <c r="J61" s="6">
-        <v>0.19383259911894271</v>
-      </c>
-      <c r="K61" s="6">
-        <v>0.21640488656195461</v>
-      </c>
-      <c r="L61" s="6">
-        <v>0.2243186582809224</v>
-      </c>
-      <c r="M61" s="6">
-        <v>0.20548744892002341</v>
-      </c>
-      <c r="N61" s="6">
-        <v>0.2189695550351288</v>
-      </c>
-      <c r="O61" s="6">
-        <v>0.23452380952380961</v>
-      </c>
-      <c r="P61" s="6">
-        <v>0.23549107142857151</v>
-      </c>
-      <c r="Q61" s="6">
-        <v>0.23434807581849509</v>
-      </c>
-      <c r="R61" s="6">
-        <v>0.24215246636771301</v>
-      </c>
-      <c r="S61" s="6">
-        <v>0.23659480375898281</v>
-      </c>
-      <c r="T61" s="6">
-        <v>0.23639362286970861</v>
-      </c>
-      <c r="U61" s="6">
-        <v>0.2359550561797753</v>
-      </c>
-      <c r="V61" s="6">
-        <v>0.18132481546529622</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="B62" s="6">
-        <v>0.13049267643142479</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0.15100154083204931</v>
-      </c>
-      <c r="D62" s="6">
-        <v>0.22072348252605761</v>
-      </c>
-      <c r="E62" s="6">
-        <v>0.25499412455934201</v>
-      </c>
-      <c r="F62" s="6">
-        <v>0.2525714285714285</v>
-      </c>
-      <c r="G62" s="6">
-        <v>0.25105485232067498</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0.26165413533834592</v>
-      </c>
-      <c r="I62" s="6">
-        <v>0.27047015319598522</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0.26760563380281688</v>
-      </c>
-      <c r="K62" s="6">
-        <v>0.2733232476046395</v>
-      </c>
-      <c r="L62" s="6">
-        <v>0.27234490010515239</v>
-      </c>
-      <c r="M62" s="6">
-        <v>0.27570621468926548</v>
-      </c>
-      <c r="N62" s="6">
-        <v>0.26371308016877643</v>
-      </c>
-      <c r="O62" s="6">
-        <v>0.27837259100642398</v>
-      </c>
-      <c r="P62" s="6">
-        <v>0.26856561546286878</v>
-      </c>
-      <c r="Q62" s="6">
-        <v>0.27518172377985461</v>
-      </c>
-      <c r="R62" s="6">
-        <v>0.28030690537084402</v>
-      </c>
-      <c r="S62" s="6">
-        <v>0.27833421191354768</v>
-      </c>
-      <c r="T62" s="6">
-        <v>0.27661795407098122</v>
-      </c>
-      <c r="U62" s="6">
-        <v>0.28010610079575587</v>
-      </c>
-      <c r="V62" s="6">
-        <v>0.25415702862731177</v>
-      </c>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="6">
-        <v>8.3300791744628178E-2</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0.10977627145802206</v>
-      </c>
-      <c r="D63" s="6">
-        <v>0.14086125957054524</v>
-      </c>
-      <c r="E63" s="6">
-        <v>0.16277978001991794</v>
-      </c>
-      <c r="F63" s="6">
-        <v>0.1731722465976428</v>
-      </c>
-      <c r="G63" s="6">
-        <v>0.18036335453684549</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0.18785721410097184</v>
-      </c>
-      <c r="I63" s="6">
-        <v>0.1939363063662625</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0.19751990541427511</v>
-      </c>
-      <c r="K63" s="6">
-        <v>0.20134601102878399</v>
-      </c>
-      <c r="L63" s="6">
-        <v>0.20356078147558121</v>
-      </c>
-      <c r="M63" s="6">
-        <v>0.20689562315215715</v>
-      </c>
-      <c r="N63" s="6">
-        <v>0.20872081101738044</v>
-      </c>
-      <c r="O63" s="6">
-        <v>0.21138330878104275</v>
-      </c>
-      <c r="P63" s="6">
-        <v>0.21267265314588099</v>
-      </c>
-      <c r="Q63" s="6">
-        <v>0.21332513040694434</v>
-      </c>
-      <c r="R63" s="6">
-        <v>0.2152884951153069</v>
-      </c>
-      <c r="S63" s="6">
-        <v>0.21539970211374998</v>
-      </c>
-      <c r="T63" s="6">
-        <v>0.21517643445718043</v>
-      </c>
-      <c r="U63" s="6">
-        <v>0.2155427615187612</v>
-      </c>
-      <c r="V63" s="6">
-        <v>0.18744394210109402</v>
+      <c r="B34" s="6">
+        <v>0.11578695565180078</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.14937948023996547</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.18497933634039332</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.20868790448013538</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.22433907313030699</v>
+      </c>
+      <c r="G34" s="6">
+        <v>0.23458163943069299</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.23829777754562056</v>
+      </c>
+      <c r="I34" s="6">
+        <v>0.24830212946953262</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.25127965719180406</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0.25291185939393312</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0.25593906183787335</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0.26078010796491097</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0.26427329137583011</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0.26475896523025533</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0.26465400335763256</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>0.26580326512087582</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0.26764176343270674</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0.2670856477911478</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0.26719382438562622</v>
+      </c>
+      <c r="U34" s="6">
+        <v>0.26779404832962</v>
+      </c>
+      <c r="V34" s="6">
+        <v>0.2377234895850332</v>
       </c>
     </row>
   </sheetData>
